--- a/target/classes/allData.csv.xlsx
+++ b/target/classes/allData.csv.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="S:\SeleniumNotesRiyanshi\src\main\resources\"/>
     </mc:Choice>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="2">
   <si>
     <t>user name</t>
   </si>
@@ -32,7 +32,8 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="18" x14ac:knownFonts="1">
+  <numFmts count="0"/>
+  <fonts count="18">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -874,7 +875,7 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="12.109375" customWidth="1"/>
+    <col min="1" max="1" customWidth="true" width="12.109375" collapsed="false"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:2" x14ac:dyDescent="0.3">
@@ -885,6 +886,11 @@
         <v>1</v>
       </c>
     </row>
+    <row r="2">
+      <c r="D2" t="s">
+        <v>1</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
